--- a/data/trans_dic/P22$ss-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P22$ss-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>94,63; 97,53</t>
+          <t>94,84; 97,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>94,35; 97,77</t>
+          <t>94,34; 97,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>95,2; 98,16</t>
+          <t>95,35; 98,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>95,9; 98,5</t>
+          <t>95,85; 98,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>93,62; 96,92</t>
+          <t>93,57; 96,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,47; 99,45</t>
+          <t>97,56; 99,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,35; 99,25</t>
+          <t>97,43; 99,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>97,97; 99,18</t>
+          <t>97,95; 99,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>94,72; 97,02</t>
+          <t>94,8; 96,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>96,6; 98,42</t>
+          <t>96,5; 98,45</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>96,81; 98,48</t>
+          <t>96,82; 98,57</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,3; 98,7</t>
+          <t>97,29; 98,69</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,17; 97,65</t>
+          <t>95,22; 97,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>93,61; 96,74</t>
+          <t>93,57; 96,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>92,75; 95,85</t>
+          <t>92,88; 95,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>95,99; 98,62</t>
+          <t>95,91; 98,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>94,46; 97,01</t>
+          <t>94,42; 97,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>96,39; 98,46</t>
+          <t>96,56; 98,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>96,38; 98,27</t>
+          <t>96,43; 98,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>95,92; 97,67</t>
+          <t>95,86; 97,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>95,14; 97,03</t>
+          <t>95,17; 96,96</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>95,41; 97,35</t>
+          <t>95,42; 97,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>95,01; 96,85</t>
+          <t>95,04; 96,81</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>96,33; 98,05</t>
+          <t>96,33; 98,07</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>93,7; 97,06</t>
+          <t>93,74; 97,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>92,01; 95,96</t>
+          <t>92,37; 96,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>96,43; 98,6</t>
+          <t>96,02; 98,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>93,31; 97,61</t>
+          <t>93,11; 97,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>93,09; 96,6</t>
+          <t>93,16; 96,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>91,81; 95,7</t>
+          <t>91,78; 95,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>94,31; 97,14</t>
+          <t>94,32; 97,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>96,55; 98,91</t>
+          <t>96,6; 98,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>93,97; 96,28</t>
+          <t>93,98; 96,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>92,68; 95,53</t>
+          <t>92,57; 95,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>95,71; 97,54</t>
+          <t>95,81; 97,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>95,81; 98,14</t>
+          <t>95,84; 98,11</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>92,96; 95,88</t>
+          <t>92,8; 95,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>93,36; 96,32</t>
+          <t>93,31; 96,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,7; 94,42</t>
+          <t>90,7; 94,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>94,02; 96,54</t>
+          <t>94,02; 96,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,86; 96,59</t>
+          <t>93,76; 96,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,38; 96,35</t>
+          <t>93,73; 96,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>93,0; 95,77</t>
+          <t>92,85; 95,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>94,16; 96,84</t>
+          <t>94,18; 96,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93,92; 95,89</t>
+          <t>93,95; 95,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>94,03; 96,0</t>
+          <t>94,01; 95,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>92,43; 94,6</t>
+          <t>92,41; 94,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,69; 96,41</t>
+          <t>94,65; 96,41</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>95,01; 96,37</t>
+          <t>94,93; 96,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>94,45; 96,01</t>
+          <t>94,31; 95,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,42; 95,91</t>
+          <t>94,27; 95,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>95,78; 97,42</t>
+          <t>95,78; 97,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>94,7; 96,15</t>
+          <t>94,72; 96,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>95,58; 96,97</t>
+          <t>95,61; 97,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>95,83; 97,05</t>
+          <t>95,87; 97,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>96,56; 97,7</t>
+          <t>96,47; 97,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>95,04; 96,13</t>
+          <t>95,06; 96,09</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>95,28; 96,32</t>
+          <t>95,3; 96,31</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>95,37; 96,31</t>
+          <t>95,25; 96,29</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>96,33; 97,33</t>
+          <t>96,34; 97,32</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Seguridad Social</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1219</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1321</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1296</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1290</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>667251</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>678062</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>653356</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>619393</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>656104</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>689295</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>663367</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>667115</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1323355</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1367357</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1316724</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1286509</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>656180; 674897</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>663664; 687474</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>642341; 661925</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>609049; 625641</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>643326; 665307</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>680030; 693901</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>655562; 668337</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>661929; 670095</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1307612; 1337761</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1351476; 1378771</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1303618; 1327253</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1275703; 1294025</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>933</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>918</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>949</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1468</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1737</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1815</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1852</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2401</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>927082</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>969347</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>965386</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1161277</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>928597</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1007480</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1014944</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>928385</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1855680</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1976827</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1980330</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2089662</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>914872; 937647</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>951583; 983556</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>948761; 979914</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1144115; 1177530</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>914393; 939766</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>996627; 1016061</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1003815; 1023764</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>918415; 935615</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1836040; 1870569</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1955364; 1993756</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1960234; 1996640</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2072063; 2109494</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1275</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1381</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1670</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>647014</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>715022</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>739857</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>675981</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>649854</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>730359</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>749283</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>912399</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1296868</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1445381</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1489140</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1588381</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>635158; 658168</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>699839; 729216</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>727585; 746499</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>656150; 686635</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>637100; 659486</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>713301; 743571</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>736712; 759252</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>901609; 923312</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1279421; 1312040</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1420825; 1464650</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1474349; 1501675</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1569844; 1607098</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>949</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>958</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1491</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1890</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1823</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1772</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2440</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>888871</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>900664</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>866774</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>884214</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>988875</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1001313</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>986813</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1045286</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1877745</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1901976</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1853587</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1929500</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>872188; 900561</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>884374; 912780</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>849545; 883254</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>871437; 894900</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>972687; 1001199</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>985897; 1014485</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>969158; 1001147</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1028804; 1056876</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1857700; 1894927</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1879884; 1919027</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1829972; 1874570</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1911250; 1946672</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3073</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3078</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3247</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3188</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3217</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6223</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6258</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6295</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>8441</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3130219</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3263096</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3225373</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3340866</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3223430</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3428447</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3414408</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3553187</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>6353647</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6691543</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6639782</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6894053</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3104184; 3152618</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3230977; 3286587</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3195178; 3251103</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3313703; 3368767</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3198770; 3247499</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3401956; 3451750</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3392445; 3436861</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3530609; 3575358</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6319080; 6387327</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>6656193; 6726464</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>6599057; 6671207</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6859215; 6928461</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>